--- a/jeaf-message-constants-generator/src/main/resources/Generator-Messages.xlsx
+++ b/jeaf-message-constants-generator/src/main/resources/Generator-Messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\JEAF\jeaf-generator\jeaf-message-constants-generator\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753827E7-038D-4ACB-A2DF-4BF289B0561D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BBD429-8510-4576-81A7-022B4110EE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{ADB42BFB-6EC0-410A-8CB1-9C298A092AA4}"/>
   </bookViews>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>Class-Info</t>
   </si>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>LOCAL_FILE_PATH_IN_XMI</t>
+  </si>
+  <si>
+    <t>INCOMAPTIBLE_TYPE_IN_BEAN_PARAM</t>
+  </si>
+  <si>
+    <t>When working with OpenAPI and REST there are some restrictions concerning the data types that can be used in Java. This warning tells you that in a defined "BeanParam" at least one property uses an incompatible type. This will lead to an invalid request / response from an OpenAPI perspective.</t>
   </si>
 </sst>
 </file>
@@ -824,17 +830,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CCAB7F28-ED90-43C0-8A71-42EFC7C2E440}" name="Tabelle15" displayName="Tabelle15" ref="A1:I45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CCAB7F28-ED90-43C0-8A71-42EFC7C2E440}" name="Tabelle15" displayName="Tabelle15" ref="A1:I45" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C654A52-9977-43E8-A408-3E83B7FFBCB6}" name="Message-ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{63B44A43-C09D-4F43-8DDA-7B503C755DC2}" name="Name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{1B9EBE8E-E83D-40C4-BF8C-CEBEDF609E6A}" name="Message-Type" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2128F7C9-1577-4EF9-89C4-182FBACCF9C2}" name="Trace-Level" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{72BF94A4-5250-4027-9917-1B27919FCD58}" name="Deprecated" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{8346C41A-EDA4-40A7-ACAA-BEF5677FA0BF}" name="Description" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{A46297DB-6DF3-41E6-BC33-98ED34EEEC72}" name="Default-Text" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{79E22CF0-6161-4F16-8B6F-2A8B234B7211}" name="de" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E6D99DB3-44B4-4830-B1DA-DF181780374F}" name="de_CH" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7C654A52-9977-43E8-A408-3E83B7FFBCB6}" name="Message-ID" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{63B44A43-C09D-4F43-8DDA-7B503C755DC2}" name="Name" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{1B9EBE8E-E83D-40C4-BF8C-CEBEDF609E6A}" name="Message-Type" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{2128F7C9-1577-4EF9-89C4-182FBACCF9C2}" name="Trace-Level" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{72BF94A4-5250-4027-9917-1B27919FCD58}" name="Deprecated" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{8346C41A-EDA4-40A7-ACAA-BEF5677FA0BF}" name="Description" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{A46297DB-6DF3-41E6-BC33-98ED34EEEC72}" name="Default-Text" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{79E22CF0-6161-4F16-8B6F-2A8B234B7211}" name="de" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{E6D99DB3-44B4-4830-B1DA-DF181780374F}" name="de_CH" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -858,17 +864,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CA772BD-8BBC-4A69-B04B-07ABC6834AB5}" name="Tabelle1" displayName="Tabelle1" ref="A1:I45" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CA772BD-8BBC-4A69-B04B-07ABC6834AB5}" name="Tabelle1" displayName="Tabelle1" ref="A1:I45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{99B83EAC-0470-4BBD-BF0F-0B3ED216B509}" name="Message-ID" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{1D0805BB-14A5-46D8-926C-7EF19373398A}" name="Name" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{95D9BE1F-E505-4244-BF73-730083595171}" name="Message-Type" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{3AEE1724-EB57-4317-9B44-58142DC5CE51}" name="Trace-Level" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{BCBCDD70-00BD-4A71-AB02-AEADBAA7CE21}" name="Deprecated" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{8A4D2204-43F3-40F6-BF3B-9C6E5AB6BCD1}" name="Description" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{5D2E8F0C-58F0-4394-8334-DBCC1FF18746}" name="Default-Text" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{ECEC86C7-BC45-4B18-80E4-4C2F755B8A25}" name="de" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{A2C4A677-579B-412F-A217-B5C30A83C750}" name="de_CH" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{99B83EAC-0470-4BBD-BF0F-0B3ED216B509}" name="Message-ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1D0805BB-14A5-46D8-926C-7EF19373398A}" name="Name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{95D9BE1F-E505-4244-BF73-730083595171}" name="Message-Type" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{3AEE1724-EB57-4317-9B44-58142DC5CE51}" name="Trace-Level" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{BCBCDD70-00BD-4A71-AB02-AEADBAA7CE21}" name="Deprecated" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8A4D2204-43F3-40F6-BF3B-9C6E5AB6BCD1}" name="Description" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5D2E8F0C-58F0-4394-8334-DBCC1FF18746}" name="Default-Text" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{ECEC86C7-BC45-4B18-80E4-4C2F755B8A25}" name="de" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A2C4A677-579B-412F-A217-B5C30A83C750}" name="de_CH" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1359,7 +1365,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,9 +1462,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">

--- a/jeaf-message-constants-generator/src/main/resources/Generator-Messages.xlsx
+++ b/jeaf-message-constants-generator/src/main/resources/Generator-Messages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\JEAF\jeaf-generator\jeaf-message-constants-generator\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BBD429-8510-4576-81A7-022B4110EE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2D5A5E-7B18-47E3-AF78-3F987BD54162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{ADB42BFB-6EC0-410A-8CB1-9C298A092AA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{ADB42BFB-6EC0-410A-8CB1-9C298A092AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Class-Info" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>Class-Info</t>
   </si>
@@ -382,9 +382,6 @@
     <t>INVALID_JMM</t>
   </si>
   <si>
-    <t>JEAF Generator expects JEAF Meta Model (JMM) revision 68 or higher. Please update your UML project to a newer version of JMM.</t>
-  </si>
-  <si>
     <t>JEAF Generator expects a specific version of the so called JEAF Meta Model (JMM). The JMM version that is used by your UML Model seems to be outdated. Please upgrade to latest version of JMM.</t>
   </si>
   <si>
@@ -404,6 +401,9 @@
   </si>
   <si>
     <t>When working with OpenAPI and REST there are some restrictions concerning the data types that can be used in Java. This warning tells you that in a defined "BeanParam" at least one property uses an incompatible type. This will lead to an invalid request / response from an OpenAPI perspective.</t>
+  </si>
+  <si>
+    <t>JEAF Generator expects JEAF Meta Model (JMM) revision ''{0}'' or higher. Please update your UML project to a newer version of JMM.</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,10 +1422,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
@@ -1439,7 +1439,7 @@
         <v>9101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1448,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -1456,10 +1456,16 @@
         <v>9102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1467,10 +1473,16 @@
         <v>9103</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
